--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowWidth="28000" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="ag_通用版1" sheetId="3" r:id="rId1"/>
@@ -146,9 +146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -187,12 +187,126 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -207,120 +321,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,175 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,20 +525,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,32 +585,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,138 +622,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,26 +753,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,9 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1119,7 +1116,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5"/>
@@ -1196,13 +1193,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1219,10 +1216,10 @@
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1230,7 +1227,7 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1239,10 +1236,10 @@
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1253,7 +1250,7 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1262,7 +1259,7 @@
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1370,13 +1367,12 @@
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13200"/>
+    <workbookView windowWidth="28000" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ag_通用版1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>descrption</t>
   </si>
@@ -120,37 +120,18 @@
   <si>
     <t>https://campus-sit.sf-express.com/campusplus/school/delete/${schoolid}</t>
   </si>
-  <si>
-    <t>测试三下</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:7080/api/add/register</t>
-  </si>
-  <si>
-    <t>{
-    'Content-Type': "application/json",
-    'Authorization': "eyJhbGciOiJIUzUxMiIsImlhdCI6MTU4NTA1NjkyMCwiZXhwIjoxNTg1MDYwNTIwfQ.eyJpZCI6Mn0.jXJ0MoFI60GYSTQ-ObGR-D-IaMVRDAGVKz0xFu4SVKNhE3ifz39eeLKuuZuvYW8QzMr9dZagmLOO96hSWaGUvw",
-    'cache-control': "${co}${mg}"
-    }</t>
-  </si>
-  <si>
-    <t>{"account":"${co}","password":"python","username":"${mg}"}</t>
-  </si>
-  <si>
-    <t>$.code=4101;$.msg=身份信息校验已过期</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,59 +153,78 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Helvetica"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,59 +239,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -300,7 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,17 +255,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,31 +318,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,43 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +444,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,79 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +497,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,17 +533,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +569,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -584,195 +597,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,10 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1115,11 +1087,11 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.7884615384615" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1634615384615" style="1" customWidth="1"/>
@@ -1227,7 +1199,7 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1250,7 +1222,7 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1265,7 +1237,7 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="D6" s="3"/>
     </row>
   </sheetData>
@@ -1285,13 +1257,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.7884615384615" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1634615384615" style="1" customWidth="1"/>
@@ -1354,52 +1326,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:4">
       <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" ht="60" customHeight="1" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
